--- a/ExcelDataManager/output/Planilha_Consolidadora_2.xlsx
+++ b/ExcelDataManager/output/Planilha_Consolidadora_2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
   <si>
     <t>Nome do FC</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>SITE PORTAL RS-xx</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -4393,11 +4396,9 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D2"/>
       <c r="F2">
         <v>15000</v>
       </c>
